--- a/initialsVerification.xlsx
+++ b/initialsVerification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnbrooks/Dropbox/R_files/Users/johnbrooks/Dropbox/Synced/R/STAT 5702/Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669F5902-8189-2D4F-AE57-C6FC71B3DA41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C69E8B-7811-734C-BC30-56FED2F8DF67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="-17940" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="-17940" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6563,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1182" workbookViewId="0">
-      <selection activeCell="C1251" sqref="C1251"/>
+    <sheetView tabSelected="1" topLeftCell="A1196" workbookViewId="0">
+      <selection activeCell="C1203" sqref="C1203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16271,14 +16271,14 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:3" ht="335" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>883</v>
       </c>
       <c r="B883" t="s">
         <v>1413</v>
       </c>
-      <c r="C883" t="s">
+      <c r="C883" s="1" t="s">
         <v>1740</v>
       </c>
     </row>
@@ -16711,14 +16711,14 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:3" ht="320" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>923</v>
       </c>
       <c r="B923" t="s">
         <v>1431</v>
       </c>
-      <c r="C923" t="s">
+      <c r="C923" s="1" t="s">
         <v>1714</v>
       </c>
     </row>
@@ -18405,14 +18405,14 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>1077</v>
       </c>
       <c r="B1077" t="s">
         <v>1481</v>
       </c>
-      <c r="C1077" t="s">
+      <c r="C1077" s="1" t="s">
         <v>1876</v>
       </c>
     </row>
@@ -19197,14 +19197,14 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:3" ht="335" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
         <v>1149</v>
       </c>
       <c r="B1149" t="s">
         <v>1504</v>
       </c>
-      <c r="C1149" t="s">
+      <c r="C1149" s="1" t="s">
         <v>1740</v>
       </c>
     </row>
@@ -19395,14 +19395,14 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>1167</v>
       </c>
       <c r="B1167" t="s">
         <v>1506</v>
       </c>
-      <c r="C1167" t="s">
+      <c r="C1167" s="1" t="s">
         <v>1823</v>
       </c>
     </row>
